--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Matn1-Itgb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Matn1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Matn1</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.618920476286546</v>
+        <v>0.3344773333333333</v>
       </c>
       <c r="H2">
-        <v>0.618920476286546</v>
+        <v>1.003432</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2948820465348644</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2948820465348644</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N2">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q2">
-        <v>45.1990712778827</v>
+        <v>31.70840136287734</v>
       </c>
       <c r="R2">
-        <v>45.1990712778827</v>
+        <v>285.3756122658961</v>
       </c>
       <c r="S2">
-        <v>0.1385630086267262</v>
+        <v>0.04959808602454806</v>
       </c>
       <c r="T2">
-        <v>0.1385630086267262</v>
+        <v>0.04959808602454808</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.618920476286546</v>
+        <v>0.3344773333333333</v>
       </c>
       <c r="H3">
-        <v>0.618920476286546</v>
+        <v>1.003432</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2948820465348644</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2948820465348644</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N3">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q3">
-        <v>89.6751816528087</v>
+        <v>48.71373460777955</v>
       </c>
       <c r="R3">
-        <v>89.6751816528087</v>
+        <v>438.4236114700161</v>
       </c>
       <c r="S3">
-        <v>0.2749096965415224</v>
+        <v>0.07619772349930946</v>
       </c>
       <c r="T3">
-        <v>0.2749096965415224</v>
+        <v>0.07619772349930949</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.618920476286546</v>
+        <v>0.3344773333333333</v>
       </c>
       <c r="H4">
-        <v>0.618920476286546</v>
+        <v>1.003432</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2948820465348644</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.2948820465348644</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N4">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q4">
-        <v>42.09882160955409</v>
+        <v>24.34191259933156</v>
       </c>
       <c r="R4">
-        <v>42.09882160955409</v>
+        <v>219.077213393984</v>
       </c>
       <c r="S4">
-        <v>0.1290588327799135</v>
+        <v>0.0380754696929357</v>
       </c>
       <c r="T4">
-        <v>0.1290588327799135</v>
+        <v>0.03807546969293571</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.618920476286546</v>
+        <v>0.3344773333333333</v>
       </c>
       <c r="H5">
-        <v>0.618920476286546</v>
+        <v>1.003432</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.2948820465348644</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.2948820465348644</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N5">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q5">
-        <v>47.25238428706179</v>
+        <v>25.54942014665778</v>
       </c>
       <c r="R5">
-        <v>47.25238428706179</v>
+        <v>229.9447813199201</v>
       </c>
       <c r="S5">
-        <v>0.1448576784099851</v>
+        <v>0.03996424555779823</v>
       </c>
       <c r="T5">
-        <v>0.1448576784099851</v>
+        <v>0.03996424555779825</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.618920476286546</v>
+        <v>0.3344773333333333</v>
       </c>
       <c r="H6">
-        <v>0.618920476286546</v>
+        <v>1.003432</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.2948820465348644</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.2948820465348644</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N6">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O6">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P6">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q6">
-        <v>35.28571988832343</v>
+        <v>19.46219446425066</v>
       </c>
       <c r="R6">
-        <v>35.28571988832343</v>
+        <v>175.159750178256</v>
       </c>
       <c r="S6">
-        <v>0.1081724772446483</v>
+        <v>0.03044264465488001</v>
       </c>
       <c r="T6">
-        <v>0.1081724772446483</v>
+        <v>0.03044264465488002</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,805 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.618920476286546</v>
+        <v>0.3344773333333333</v>
       </c>
       <c r="H7">
-        <v>0.618920476286546</v>
+        <v>1.003432</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.2948820465348644</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.2948820465348644</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N7">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q7">
-        <v>66.68750681987251</v>
+        <v>38.74448014895555</v>
       </c>
       <c r="R7">
-        <v>66.68750681987251</v>
+        <v>348.7003213406</v>
       </c>
       <c r="S7">
-        <v>0.2044383063972043</v>
+        <v>0.06060387710539295</v>
       </c>
       <c r="T7">
-        <v>0.2044383063972043</v>
+        <v>0.06060387710539297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.6367003333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.910101</v>
+      </c>
+      <c r="I8">
+        <v>0.561328014223476</v>
+      </c>
+      <c r="J8">
+        <v>0.5613280142234761</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>94.799851</v>
+      </c>
+      <c r="N8">
+        <v>284.399553</v>
+      </c>
+      <c r="O8">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="P8">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="Q8">
+        <v>60.35909673165033</v>
+      </c>
+      <c r="R8">
+        <v>543.231870584853</v>
+      </c>
+      <c r="S8">
+        <v>0.09441332717471167</v>
+      </c>
+      <c r="T8">
+        <v>0.09441332717471171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.6367003333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.910101</v>
+      </c>
+      <c r="I9">
+        <v>0.561328014223476</v>
+      </c>
+      <c r="J9">
+        <v>0.5613280142234761</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>145.6413626666667</v>
+      </c>
+      <c r="N9">
+        <v>436.924088</v>
+      </c>
+      <c r="O9">
+        <v>0.2584006873076977</v>
+      </c>
+      <c r="P9">
+        <v>0.2584006873076978</v>
+      </c>
+      <c r="Q9">
+        <v>92.72990415698754</v>
+      </c>
+      <c r="R9">
+        <v>834.569137412888</v>
+      </c>
+      <c r="S9">
+        <v>0.1450475446804113</v>
+      </c>
+      <c r="T9">
+        <v>0.1450475446804114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.6367003333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.910101</v>
+      </c>
+      <c r="I10">
+        <v>0.561328014223476</v>
+      </c>
+      <c r="J10">
+        <v>0.5613280142234761</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>72.77597066666667</v>
+      </c>
+      <c r="N10">
+        <v>218.327912</v>
+      </c>
+      <c r="O10">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="P10">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="Q10">
+        <v>46.33648478212356</v>
+      </c>
+      <c r="R10">
+        <v>417.028363039112</v>
+      </c>
+      <c r="S10">
+        <v>0.07247924397063894</v>
+      </c>
+      <c r="T10">
+        <v>0.07247924397063896</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.6367003333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.910101</v>
+      </c>
+      <c r="I11">
+        <v>0.561328014223476</v>
+      </c>
+      <c r="J11">
+        <v>0.5613280142234761</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>76.38610333333334</v>
+      </c>
+      <c r="N11">
+        <v>229.15831</v>
+      </c>
+      <c r="O11">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="P11">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="Q11">
+        <v>48.63505745436778</v>
+      </c>
+      <c r="R11">
+        <v>437.7155170893101</v>
+      </c>
+      <c r="S11">
+        <v>0.07607465718075161</v>
+      </c>
+      <c r="T11">
+        <v>0.07607465718075165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.6367003333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.910101</v>
+      </c>
+      <c r="I12">
+        <v>0.561328014223476</v>
+      </c>
+      <c r="J12">
+        <v>0.5613280142234761</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>58.18688599999999</v>
+      </c>
+      <c r="N12">
+        <v>174.560658</v>
+      </c>
+      <c r="O12">
+        <v>0.10323668399826</v>
+      </c>
+      <c r="P12">
+        <v>0.1032366839982601</v>
+      </c>
+      <c r="Q12">
+        <v>37.04760971182866</v>
+      </c>
+      <c r="R12">
+        <v>333.428487406458</v>
+      </c>
+      <c r="S12">
+        <v>0.05794964282375981</v>
+      </c>
+      <c r="T12">
+        <v>0.05794964282375983</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.6367003333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.910101</v>
+      </c>
+      <c r="I13">
+        <v>0.561328014223476</v>
+      </c>
+      <c r="J13">
+        <v>0.5613280142234761</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N13">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O13">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P13">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q13">
+        <v>73.75275083613055</v>
+      </c>
+      <c r="R13">
+        <v>663.7747575251749</v>
+      </c>
+      <c r="S13">
+        <v>0.1153635983932027</v>
+      </c>
+      <c r="T13">
+        <v>0.1153635983932027</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1630973333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.489292</v>
+      </c>
+      <c r="I14">
+        <v>0.1437899392416595</v>
+      </c>
+      <c r="J14">
+        <v>0.1437899392416595</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>94.799851</v>
+      </c>
+      <c r="N14">
+        <v>284.399553</v>
+      </c>
+      <c r="O14">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="P14">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="Q14">
+        <v>15.46160289849733</v>
+      </c>
+      <c r="R14">
+        <v>139.154426086476</v>
+      </c>
+      <c r="S14">
+        <v>0.02418494397938592</v>
+      </c>
+      <c r="T14">
+        <v>0.02418494397938593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1630973333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.489292</v>
+      </c>
+      <c r="I15">
+        <v>0.1437899392416595</v>
+      </c>
+      <c r="J15">
+        <v>0.1437899392416595</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>145.6413626666667</v>
+      </c>
+      <c r="N15">
+        <v>436.924088</v>
+      </c>
+      <c r="O15">
+        <v>0.2584006873076977</v>
+      </c>
+      <c r="P15">
+        <v>0.2584006873076978</v>
+      </c>
+      <c r="Q15">
+        <v>23.75371787396622</v>
+      </c>
+      <c r="R15">
+        <v>213.783460865696</v>
+      </c>
+      <c r="S15">
+        <v>0.03715541912797691</v>
+      </c>
+      <c r="T15">
+        <v>0.03715541912797692</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1630973333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.489292</v>
+      </c>
+      <c r="I16">
+        <v>0.1437899392416595</v>
+      </c>
+      <c r="J16">
+        <v>0.1437899392416595</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>72.77597066666667</v>
+      </c>
+      <c r="N16">
+        <v>218.327912</v>
+      </c>
+      <c r="O16">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="P16">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="Q16">
+        <v>11.86956674647822</v>
+      </c>
+      <c r="R16">
+        <v>106.826100718304</v>
+      </c>
+      <c r="S16">
+        <v>0.01856630316453521</v>
+      </c>
+      <c r="T16">
+        <v>0.01856630316453521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1630973333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.489292</v>
+      </c>
+      <c r="I17">
+        <v>0.1437899392416595</v>
+      </c>
+      <c r="J17">
+        <v>0.1437899392416595</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>76.38610333333334</v>
+      </c>
+      <c r="N17">
+        <v>229.15831</v>
+      </c>
+      <c r="O17">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="P17">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="Q17">
+        <v>12.45836975739111</v>
+      </c>
+      <c r="R17">
+        <v>112.12532781652</v>
+      </c>
+      <c r="S17">
+        <v>0.01948730520599922</v>
+      </c>
+      <c r="T17">
+        <v>0.01948730520599923</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1630973333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.489292</v>
+      </c>
+      <c r="I18">
+        <v>0.1437899392416595</v>
+      </c>
+      <c r="J18">
+        <v>0.1437899392416595</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>58.18688599999999</v>
+      </c>
+      <c r="N18">
+        <v>174.560658</v>
+      </c>
+      <c r="O18">
+        <v>0.10323668399826</v>
+      </c>
+      <c r="P18">
+        <v>0.1032366839982601</v>
+      </c>
+      <c r="Q18">
+        <v>9.490125941570666</v>
+      </c>
+      <c r="R18">
+        <v>85.41113347413599</v>
+      </c>
+      <c r="S18">
+        <v>0.01484439651962021</v>
+      </c>
+      <c r="T18">
+        <v>0.01484439651962021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1630973333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.489292</v>
+      </c>
+      <c r="I19">
+        <v>0.1437899392416595</v>
+      </c>
+      <c r="J19">
+        <v>0.1437899392416595</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N19">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O19">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P19">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q19">
+        <v>18.89252503512222</v>
+      </c>
+      <c r="R19">
+        <v>170.0327253161</v>
+      </c>
+      <c r="S19">
+        <v>0.02955157124414204</v>
+      </c>
+      <c r="T19">
+        <v>0.02955157124414204</v>
       </c>
     </row>
   </sheetData>
